--- a/natmiOut/OldD2/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H2">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I2">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J2">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q2">
-        <v>0.832665188616134</v>
+        <v>0.8880609624585</v>
       </c>
       <c r="R2">
-        <v>0.832665188616134</v>
+        <v>3.552243849834</v>
       </c>
       <c r="S2">
-        <v>0.0004288533956915392</v>
+        <v>0.0003899447841462138</v>
       </c>
       <c r="T2">
-        <v>0.0004288533956915392</v>
+        <v>0.0001993262146467152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H3">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I3">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J3">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N3">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O3">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P3">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q3">
-        <v>0.07741848094302028</v>
+        <v>0.0914853752945</v>
       </c>
       <c r="R3">
-        <v>0.07741848094302028</v>
+        <v>0.5489122517670001</v>
       </c>
       <c r="S3">
-        <v>3.987338355873191E-05</v>
+        <v>4.017094144414242E-05</v>
       </c>
       <c r="T3">
-        <v>3.987338355873191E-05</v>
+        <v>3.08009826867696E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H4">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I4">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J4">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N4">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O4">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P4">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q4">
-        <v>1.257025460177678</v>
+        <v>1.3430142965995</v>
       </c>
       <c r="R4">
-        <v>1.257025460177678</v>
+        <v>8.058085779597</v>
       </c>
       <c r="S4">
-        <v>0.0006474146444909652</v>
+        <v>0.0005897133666848285</v>
       </c>
       <c r="T4">
-        <v>0.0006474146444909652</v>
+        <v>0.000452161451647148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H5">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I5">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J5">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N5">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O5">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P5">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q5">
-        <v>1.493743121333933</v>
+        <v>1.678305089898</v>
       </c>
       <c r="R5">
-        <v>1.493743121333933</v>
+        <v>10.069830539388</v>
       </c>
       <c r="S5">
-        <v>0.0007693330027878191</v>
+        <v>0.0007369385027352223</v>
       </c>
       <c r="T5">
-        <v>0.0007693330027878191</v>
+        <v>0.0005650460070875759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H6">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I6">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J6">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N6">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O6">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P6">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q6">
-        <v>1.116978542753023</v>
+        <v>1.240470778541</v>
       </c>
       <c r="R6">
-        <v>1.116978542753023</v>
+        <v>7.442824671246001</v>
       </c>
       <c r="S6">
-        <v>0.0005752852977681688</v>
+        <v>0.0005446868294252497</v>
       </c>
       <c r="T6">
-        <v>0.0005752852977681688</v>
+        <v>0.000417637451344444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H7">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I7">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J7">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N7">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O7">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P7">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q7">
-        <v>1.276725615964012</v>
+        <v>1.7287326784425</v>
       </c>
       <c r="R7">
-        <v>1.276725615964012</v>
+        <v>6.91493071377</v>
       </c>
       <c r="S7">
-        <v>0.0006575609539802123</v>
+        <v>0.0007590810987520111</v>
       </c>
       <c r="T7">
-        <v>0.0006575609539802123</v>
+        <v>0.0003880158632084036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H8">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I8">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J8">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N8">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O8">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P8">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q8">
-        <v>5.200360294719604</v>
+        <v>5.815118084778333</v>
       </c>
       <c r="R8">
-        <v>5.200360294719604</v>
+        <v>34.89070850867</v>
       </c>
       <c r="S8">
-        <v>0.002678378058432432</v>
+        <v>0.002553400118023538</v>
       </c>
       <c r="T8">
-        <v>0.002678378058432432</v>
+        <v>0.001957814031742253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H9">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I9">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J9">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q9">
-        <v>0.4835124608039703</v>
+        <v>0.5990560140094444</v>
       </c>
       <c r="R9">
-        <v>0.4835124608039703</v>
+        <v>5.391504126085001</v>
       </c>
       <c r="S9">
-        <v>0.0002490268159517689</v>
+        <v>0.0002630436174423333</v>
       </c>
       <c r="T9">
-        <v>0.0002490268159517689</v>
+        <v>0.0003025321892681691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H10">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I10">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J10">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N10">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O10">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P10">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q10">
-        <v>7.850676816961593</v>
+        <v>8.794201135303888</v>
       </c>
       <c r="R10">
-        <v>7.850676816961593</v>
+        <v>79.147810217735</v>
       </c>
       <c r="S10">
-        <v>0.004043389176658547</v>
+        <v>0.003861506144748159</v>
       </c>
       <c r="T10">
-        <v>0.004043389176658547</v>
+        <v>0.004441202258402097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H11">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I11">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J11">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N11">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O11">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P11">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q11">
-        <v>9.329082715233616</v>
+        <v>10.98972108066</v>
       </c>
       <c r="R11">
-        <v>9.329082715233616</v>
+        <v>98.90748972594</v>
       </c>
       <c r="S11">
-        <v>0.004804822941817001</v>
+        <v>0.004825552068814553</v>
       </c>
       <c r="T11">
-        <v>0.004804822941817001</v>
+        <v>0.005549972457043395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H12">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I12">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J12">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N12">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O12">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P12">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q12">
-        <v>6.976022227421883</v>
+        <v>8.122735220747778</v>
       </c>
       <c r="R12">
-        <v>6.976022227421883</v>
+        <v>73.10461698673001</v>
       </c>
       <c r="S12">
-        <v>0.003592909685130028</v>
+        <v>0.003566667567013291</v>
       </c>
       <c r="T12">
-        <v>0.003592909685130028</v>
+        <v>0.004102101993320024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H13">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I13">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J13">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N13">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O13">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P13">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q13">
-        <v>7.973712953636535</v>
+        <v>11.31992631939167</v>
       </c>
       <c r="R13">
-        <v>7.973712953636535</v>
+        <v>67.91955791635</v>
       </c>
       <c r="S13">
-        <v>0.004106757341591094</v>
+        <v>0.004970544153800145</v>
       </c>
       <c r="T13">
-        <v>0.004106757341591094</v>
+        <v>0.003811154006383046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H14">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I14">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J14">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N14">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O14">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P14">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q14">
-        <v>158.5646496938908</v>
+        <v>178.670718956708</v>
       </c>
       <c r="R14">
-        <v>158.5646496938908</v>
+        <v>1072.024313740248</v>
       </c>
       <c r="S14">
-        <v>0.08166666432984926</v>
+        <v>0.07845375248107266</v>
       </c>
       <c r="T14">
-        <v>0.08166666432984926</v>
+        <v>0.06015424545729647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H15">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I15">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J15">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N15">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O15">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P15">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q15">
-        <v>14.74282157870111</v>
+        <v>18.40612127870267</v>
       </c>
       <c r="R15">
-        <v>14.74282157870111</v>
+        <v>165.655091508324</v>
       </c>
       <c r="S15">
-        <v>0.007593098861990737</v>
+        <v>0.00808207014203504</v>
       </c>
       <c r="T15">
-        <v>0.007593098861990737</v>
+        <v>0.009295364767498288</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H16">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I16">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J16">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N16">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O16">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P16">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q16">
-        <v>239.375687220261</v>
+        <v>270.2036685390093</v>
       </c>
       <c r="R16">
-        <v>239.375687220261</v>
+        <v>2431.833016851084</v>
       </c>
       <c r="S16">
-        <v>0.1232873401144797</v>
+        <v>0.1186455836458219</v>
       </c>
       <c r="T16">
-        <v>0.1232873401144797</v>
+        <v>0.1364568679384102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H17">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I17">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J17">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N17">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O17">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P17">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q17">
-        <v>284.453893359731</v>
+        <v>337.661477890704</v>
       </c>
       <c r="R17">
-        <v>284.453893359731</v>
+        <v>3038.953301016336</v>
       </c>
       <c r="S17">
-        <v>0.1465042849788664</v>
+        <v>0.1482660962216714</v>
       </c>
       <c r="T17">
-        <v>0.1465042849788664</v>
+        <v>0.1705240641089527</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H18">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I18">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J18">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N18">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O18">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P18">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q18">
-        <v>212.7065160987251</v>
+        <v>249.5727379268347</v>
       </c>
       <c r="R18">
-        <v>212.7065160987251</v>
+        <v>2246.154641341512</v>
       </c>
       <c r="S18">
-        <v>0.1095517297489766</v>
+        <v>0.1095866067012342</v>
       </c>
       <c r="T18">
-        <v>0.1095517297489766</v>
+        <v>0.126037941396021</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H19">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I19">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J19">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N19">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O19">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P19">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q19">
-        <v>243.1271930402253</v>
+        <v>347.80710288874</v>
       </c>
       <c r="R19">
-        <v>243.1271930402253</v>
+        <v>2086.84261733244</v>
       </c>
       <c r="S19">
-        <v>0.1252195044847978</v>
+        <v>0.1527210083472255</v>
       </c>
       <c r="T19">
-        <v>0.1252195044847978</v>
+        <v>0.1170985036671278</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H20">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I20">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J20">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N20">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O20">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P20">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q20">
-        <v>97.5192595899221</v>
+        <v>99.257022185254</v>
       </c>
       <c r="R20">
-        <v>97.5192595899221</v>
+        <v>595.542133111524</v>
       </c>
       <c r="S20">
-        <v>0.05022602865140656</v>
+        <v>0.04358344722627477</v>
       </c>
       <c r="T20">
-        <v>0.05022602865140656</v>
+        <v>0.03341751413301695</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H21">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I21">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J21">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N21">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O21">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P21">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q21">
-        <v>9.067021226968038</v>
+        <v>10.22516055665133</v>
       </c>
       <c r="R21">
-        <v>9.067021226968038</v>
+        <v>92.026445009862</v>
       </c>
       <c r="S21">
-        <v>0.004669851574382445</v>
+        <v>0.004489835939962412</v>
       </c>
       <c r="T21">
-        <v>0.004669851574382445</v>
+        <v>0.005163858030767534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H22">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I22">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J22">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N22">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O22">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P22">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q22">
-        <v>147.2190669648862</v>
+        <v>150.1063614638047</v>
       </c>
       <c r="R22">
-        <v>147.2190669648862</v>
+        <v>1350.957253174242</v>
       </c>
       <c r="S22">
-        <v>0.07582326923425345</v>
+        <v>0.06591123266800747</v>
       </c>
       <c r="T22">
-        <v>0.07582326923425345</v>
+        <v>0.07580594317513688</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H23">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I23">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J23">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N23">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O23">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P23">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q23">
-        <v>174.9427323269292</v>
+        <v>187.581227622552</v>
       </c>
       <c r="R23">
-        <v>174.9427323269292</v>
+        <v>1688.231048602968</v>
       </c>
       <c r="S23">
-        <v>0.09010198316882763</v>
+        <v>0.08236632889780472</v>
       </c>
       <c r="T23">
-        <v>0.09010198316882763</v>
+        <v>0.09473130747564236</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H24">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I24">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J24">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N24">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O24">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P24">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q24">
-        <v>130.8171903380979</v>
+        <v>138.6452516108174</v>
       </c>
       <c r="R24">
-        <v>130.8171903380979</v>
+        <v>1247.807264497356</v>
       </c>
       <c r="S24">
-        <v>0.06737569560768911</v>
+        <v>0.06087869526727917</v>
       </c>
       <c r="T24">
-        <v>0.06737569560768911</v>
+        <v>0.0700179123830571</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H25">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I25">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J25">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N25">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O25">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P25">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q25">
-        <v>149.5262903631435</v>
+        <v>193.21743108887</v>
       </c>
       <c r="R25">
-        <v>149.5262903631435</v>
+        <v>1159.30458653322</v>
       </c>
       <c r="S25">
-        <v>0.07701157469302498</v>
+        <v>0.08484116816783989</v>
       </c>
       <c r="T25">
-        <v>0.07701157469302498</v>
+        <v>0.06505178265479736</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H26">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I26">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J26">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N26">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O26">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P26">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q26">
-        <v>0.9313400607501336</v>
+        <v>1.066658533259</v>
       </c>
       <c r="R26">
-        <v>0.9313400607501336</v>
+        <v>6.399951199554</v>
       </c>
       <c r="S26">
-        <v>0.0004796746075815474</v>
+        <v>0.0004683664175012477</v>
       </c>
       <c r="T26">
-        <v>0.0004796746075815474</v>
+        <v>0.0003591189401567734</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H27">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I27">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J27">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N27">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O27">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P27">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q27">
-        <v>0.08659294723787914</v>
+        <v>0.1098839610696667</v>
       </c>
       <c r="R27">
-        <v>0.08659294723787914</v>
+        <v>0.988955649627</v>
       </c>
       <c r="S27">
-        <v>4.459857332047375E-05</v>
+        <v>4.824970277020198E-05</v>
       </c>
       <c r="T27">
-        <v>4.459857332047375E-05</v>
+        <v>5.549303325638663E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H28">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I28">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J28">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N28">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O28">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P28">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q28">
-        <v>1.405989087152837</v>
+        <v>1.613107343206333</v>
       </c>
       <c r="R28">
-        <v>1.405989087152837</v>
+        <v>14.517966088857</v>
       </c>
       <c r="S28">
-        <v>0.0007241364267105359</v>
+        <v>0.0007083103765870812</v>
       </c>
       <c r="T28">
-        <v>0.0007241364267105359</v>
+        <v>0.0008146431796895004</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H29">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I29">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J29">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N29">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O29">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P29">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q29">
-        <v>1.670758941754664</v>
+        <v>2.015828328492</v>
       </c>
       <c r="R29">
-        <v>1.670758941754664</v>
+        <v>18.142454956428</v>
       </c>
       <c r="S29">
-        <v>0.0008605027030664157</v>
+        <v>0.000885143898515153</v>
       </c>
       <c r="T29">
-        <v>0.0008605027030664157</v>
+        <v>0.001018023261841194</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H30">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I30">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J30">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N30">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O30">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P30">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q30">
-        <v>1.249345929296172</v>
+        <v>1.489941340880667</v>
       </c>
       <c r="R30">
-        <v>1.249345929296172</v>
+        <v>13.409472067926</v>
       </c>
       <c r="S30">
-        <v>0.0006434594018065371</v>
+        <v>0.0006542285711465246</v>
       </c>
       <c r="T30">
-        <v>0.0006434594018065371</v>
+        <v>0.0007524425182228002</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H31">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I31">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J31">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N31">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O31">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P31">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q31">
-        <v>1.428023807155152</v>
+        <v>2.076397388395</v>
       </c>
       <c r="R31">
-        <v>1.428023807155152</v>
+        <v>12.45838433037</v>
       </c>
       <c r="S31">
-        <v>0.0007354851231917833</v>
+        <v>0.0009117395828073992</v>
       </c>
       <c r="T31">
-        <v>0.0007354851231917833</v>
+        <v>0.000699074358113858</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H32">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I32">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J32">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="N32">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="O32">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="P32">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="Q32">
-        <v>3.975317202443409</v>
+        <v>4.4676409687515</v>
       </c>
       <c r="R32">
-        <v>3.975317202443409</v>
+        <v>17.870563875006</v>
       </c>
       <c r="S32">
-        <v>0.002047435517332269</v>
+        <v>0.001961727141321108</v>
       </c>
       <c r="T32">
-        <v>0.002047435517332269</v>
+        <v>0.001002766702227872</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H33">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I33">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J33">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="N33">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="O33">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="P33">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="Q33">
-        <v>0.3696119680364195</v>
+        <v>0.4602429652755</v>
       </c>
       <c r="R33">
-        <v>0.3696119680364195</v>
+        <v>2.761457791653</v>
       </c>
       <c r="S33">
-        <v>0.0001903638458142933</v>
+        <v>0.0002020912429844083</v>
       </c>
       <c r="T33">
-        <v>0.0001903638458142933</v>
+        <v>0.0001549530245629371</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H34">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I34">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J34">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="N34">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="O34">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="P34">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="Q34">
-        <v>6.001301608463616</v>
+        <v>6.756411943270499</v>
       </c>
       <c r="R34">
-        <v>6.001301608463616</v>
+        <v>40.538471659623</v>
       </c>
       <c r="S34">
-        <v>0.00309089248421217</v>
+        <v>0.002966719299909137</v>
       </c>
       <c r="T34">
-        <v>0.00309089248421217</v>
+        <v>0.002274725622750644</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H35">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I35">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J35">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="N35">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="O35">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="P35">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="Q35">
-        <v>7.1314410731392</v>
+        <v>8.443186779581998</v>
       </c>
       <c r="R35">
-        <v>7.1314410731392</v>
+        <v>50.659120677492</v>
       </c>
       <c r="S35">
-        <v>0.003672956143960743</v>
+        <v>0.003707376841738074</v>
       </c>
       <c r="T35">
-        <v>0.003672956143960743</v>
+        <v>0.002842623195039804</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H36">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I36">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J36">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="N36">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="O36">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="P36">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="Q36">
-        <v>5.332688428041516</v>
+        <v>6.240537874119</v>
       </c>
       <c r="R36">
-        <v>5.332688428041516</v>
+        <v>37.443227244714</v>
       </c>
       <c r="S36">
-        <v>0.00274653194560879</v>
+        <v>0.002740200613641232</v>
       </c>
       <c r="T36">
-        <v>0.00274653194560879</v>
+        <v>0.002101042908750302</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H37">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I37">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J37">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="N37">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="O37">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="P37">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="Q37">
-        <v>6.095354259227586</v>
+        <v>8.6968769766075</v>
       </c>
       <c r="R37">
-        <v>6.095354259227586</v>
+        <v>34.78750790643</v>
       </c>
       <c r="S37">
-        <v>0.003139333080991476</v>
+        <v>0.003818771411819452</v>
       </c>
       <c r="T37">
-        <v>0.003139333080991476</v>
+        <v>0.001952023160883339</v>
       </c>
     </row>
   </sheetData>
